--- a/Code/Results/Cases/Case_3_235/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_3_235/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>1.007570900774749</v>
+        <v>1.034549298079764</v>
       </c>
       <c r="D2">
-        <v>1.024155375374694</v>
+        <v>1.039237236565296</v>
       </c>
       <c r="E2">
-        <v>1.012741783185006</v>
+        <v>1.033693968881767</v>
       </c>
       <c r="F2">
-        <v>0.9729401624555303</v>
+        <v>1.044472820629332</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.045892453544668</v>
+        <v>1.040201713768006</v>
       </c>
       <c r="J2">
-        <v>1.029527501688498</v>
+        <v>1.039667933892078</v>
       </c>
       <c r="K2">
-        <v>1.035288139997947</v>
+        <v>1.042022995502928</v>
       </c>
       <c r="L2">
-        <v>1.024026413558307</v>
+        <v>1.036495582016846</v>
       </c>
       <c r="M2">
-        <v>0.9847898154854241</v>
+        <v>1.047243773065315</v>
       </c>
       <c r="N2">
-        <v>1.013115886293809</v>
+        <v>1.017095310108538</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>1.012896476090593</v>
+        <v>1.035592239019622</v>
       </c>
       <c r="D3">
-        <v>1.028411299113303</v>
+        <v>1.040073052189016</v>
       </c>
       <c r="E3">
-        <v>1.01707965993861</v>
+        <v>1.034584819740886</v>
       </c>
       <c r="F3">
-        <v>0.9854498985414928</v>
+        <v>1.046789062068997</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.048425901906226</v>
+        <v>1.0406002617218</v>
       </c>
       <c r="J3">
-        <v>1.033041639342987</v>
+        <v>1.040353580208111</v>
       </c>
       <c r="K3">
-        <v>1.038693113260084</v>
+        <v>1.042668920881376</v>
       </c>
       <c r="L3">
-        <v>1.027498569708883</v>
+        <v>1.037195247949527</v>
       </c>
       <c r="M3">
-        <v>0.9962723992558644</v>
+        <v>1.049367338425143</v>
       </c>
       <c r="N3">
-        <v>1.014348530518297</v>
+        <v>1.017331119084254</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.01624842436697</v>
+        <v>1.036266555290422</v>
       </c>
       <c r="D4">
-        <v>1.031088477837024</v>
+        <v>1.04061324969089</v>
       </c>
       <c r="E4">
-        <v>1.019814857854367</v>
+        <v>1.035161092158067</v>
       </c>
       <c r="F4">
-        <v>0.9931812677376721</v>
+        <v>1.048281843765013</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.049999511779526</v>
+        <v>1.040856171610722</v>
       </c>
       <c r="J4">
-        <v>1.035245432262204</v>
+        <v>1.040796136034545</v>
       </c>
       <c r="K4">
-        <v>1.040825630375452</v>
+        <v>1.04308560366257</v>
       </c>
       <c r="L4">
-        <v>1.029679875365593</v>
+        <v>1.037647180220787</v>
       </c>
       <c r="M4">
-        <v>1.003362691534737</v>
+        <v>1.050735140636954</v>
       </c>
       <c r="N4">
-        <v>1.015120929609319</v>
+        <v>1.017483138216689</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.017636294536127</v>
+        <v>1.036549911944327</v>
       </c>
       <c r="D5">
-        <v>1.032196628734949</v>
+        <v>1.040840199626356</v>
       </c>
       <c r="E5">
-        <v>1.02094850529821</v>
+        <v>1.035403318487171</v>
       </c>
       <c r="F5">
-        <v>0.9963522001402814</v>
+        <v>1.048908013170412</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.05064622542212</v>
+        <v>1.040963285381175</v>
       </c>
       <c r="J5">
-        <v>1.036156035182998</v>
+        <v>1.040981924385372</v>
       </c>
       <c r="K5">
-        <v>1.041706138245747</v>
+        <v>1.043260474210066</v>
       </c>
       <c r="L5">
-        <v>1.030582076116485</v>
+        <v>1.03783698307613</v>
       </c>
       <c r="M5">
-        <v>1.006269140136148</v>
+        <v>1.051308693226591</v>
       </c>
       <c r="N5">
-        <v>1.015439918346508</v>
+        <v>1.017546912365824</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.017868109078625</v>
+        <v>1.036597481461356</v>
       </c>
       <c r="D6">
-        <v>1.032381703340496</v>
+        <v>1.040878296833261</v>
       </c>
       <c r="E6">
-        <v>1.021137923370808</v>
+        <v>1.03544398713463</v>
       </c>
       <c r="F6">
-        <v>0.9968801633190557</v>
+        <v>1.049013068940392</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.050753965814395</v>
+        <v>1.040981242725054</v>
       </c>
       <c r="J6">
-        <v>1.036308023271502</v>
+        <v>1.041013103753282</v>
       </c>
       <c r="K6">
-        <v>1.041853066130397</v>
+        <v>1.043289818043941</v>
       </c>
       <c r="L6">
-        <v>1.030732713282771</v>
+        <v>1.037868840747661</v>
       </c>
       <c r="M6">
-        <v>1.00675297377145</v>
+        <v>1.051404909909178</v>
       </c>
       <c r="N6">
-        <v>1.015493150361219</v>
+        <v>1.017557612444137</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.016267051273713</v>
+        <v>1.036270342006922</v>
       </c>
       <c r="D7">
-        <v>1.031103351845639</v>
+        <v>1.040616282789894</v>
       </c>
       <c r="E7">
-        <v>1.019830068313367</v>
+        <v>1.035164328947389</v>
       </c>
       <c r="F7">
-        <v>0.9932239403413446</v>
+        <v>1.048290216108415</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.050008210372211</v>
+        <v>1.040857604716192</v>
       </c>
       <c r="J7">
-        <v>1.035257661019774</v>
+        <v>1.040798619574591</v>
       </c>
       <c r="K7">
-        <v>1.040837457489486</v>
+        <v>1.043087941478427</v>
       </c>
       <c r="L7">
-        <v>1.029691987805008</v>
+        <v>1.037649717117821</v>
       </c>
       <c r="M7">
-        <v>1.003401811093944</v>
+        <v>1.050742810211498</v>
       </c>
       <c r="N7">
-        <v>1.015125214078531</v>
+        <v>1.017483990898366</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>1.009390959194947</v>
+        <v>1.034901877389886</v>
       </c>
       <c r="D8">
-        <v>1.025610217542119</v>
+        <v>1.039519836252706</v>
       </c>
       <c r="E8">
-        <v>1.014223229787203</v>
+        <v>1.033995071754384</v>
       </c>
       <c r="F8">
-        <v>0.9772480629198474</v>
+        <v>1.045256865533383</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.046762824378903</v>
+        <v>1.040336815914951</v>
       </c>
       <c r="J8">
-        <v>1.030730213028409</v>
+        <v>1.039899880903944</v>
       </c>
       <c r="K8">
-        <v>1.036454106278591</v>
+        <v>1.042241554123393</v>
       </c>
       <c r="L8">
-        <v>1.025213924335124</v>
+        <v>1.036732203712321</v>
       </c>
       <c r="M8">
-        <v>0.9887453058114615</v>
+        <v>1.047962763933348</v>
       </c>
       <c r="N8">
-        <v>1.013537878267489</v>
+        <v>1.017175120203566</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>0.9964910257245012</v>
+        <v>1.032486247928765</v>
       </c>
       <c r="D9">
-        <v>1.015290065652058</v>
+        <v>1.03758283242321</v>
       </c>
       <c r="E9">
-        <v>1.003745941865494</v>
+        <v>1.031933336031656</v>
       </c>
       <c r="F9">
-        <v>0.9458986660446268</v>
+        <v>1.039864275285698</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.04049344948715</v>
+        <v>1.039403856515247</v>
       </c>
       <c r="J9">
-        <v>1.022168306335824</v>
+        <v>1.03830764852633</v>
       </c>
       <c r="K9">
-        <v>1.028139849137221</v>
+        <v>1.040740255428783</v>
       </c>
       <c r="L9">
-        <v>1.016778534735949</v>
+        <v>1.035109237109187</v>
       </c>
       <c r="M9">
-        <v>0.9599350460709272</v>
+        <v>1.043014298616173</v>
       </c>
       <c r="N9">
-        <v>1.010531860308443</v>
+        <v>1.016626496434572</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.9872601563711008</v>
+        <v>1.030872828646408</v>
       </c>
       <c r="D10">
-        <v>1.007889931741774</v>
+        <v>1.036288052610002</v>
       </c>
       <c r="E10">
-        <v>0.9962792977043242</v>
+        <v>1.030557830541328</v>
       </c>
       <c r="F10">
-        <v>0.9221089218642018</v>
+        <v>1.036235022550647</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.035862329450526</v>
+        <v>1.0387714513984</v>
       </c>
       <c r="J10">
-        <v>1.01598851359163</v>
+        <v>1.037240287407188</v>
       </c>
       <c r="K10">
-        <v>1.022118177437394</v>
+        <v>1.039732622321974</v>
       </c>
       <c r="L10">
-        <v>1.010716057113742</v>
+        <v>1.034022986701529</v>
       </c>
       <c r="M10">
-        <v>0.9380429398504068</v>
+        <v>1.039679781627275</v>
       </c>
       <c r="N10">
-        <v>1.008360688443535</v>
+        <v>1.016257781104034</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9830837105636253</v>
+        <v>1.030173451286913</v>
       </c>
       <c r="D11">
-        <v>1.004536173317765</v>
+        <v>1.035726550840306</v>
       </c>
       <c r="E11">
-        <v>0.992908797432155</v>
+        <v>1.029961956254317</v>
       </c>
       <c r="F11">
-        <v>0.9108893525129274</v>
+        <v>1.034654888983438</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.033725482324197</v>
+        <v>1.038495099728783</v>
       </c>
       <c r="J11">
-        <v>1.013177562144581</v>
+        <v>1.036776684930313</v>
       </c>
       <c r="K11">
-        <v>1.019373048088765</v>
+        <v>1.039294668413303</v>
       </c>
       <c r="L11">
-        <v>1.007965694038002</v>
+        <v>1.033551589128294</v>
       </c>
       <c r="M11">
-        <v>0.9277130806442276</v>
+        <v>1.038226986262501</v>
       </c>
       <c r="N11">
-        <v>1.007373119166887</v>
+        <v>1.016097410695983</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9815022171594794</v>
+        <v>1.029913554423105</v>
       </c>
       <c r="D12">
-        <v>1.003265104456122</v>
+        <v>1.035517853042596</v>
       </c>
       <c r="E12">
-        <v>0.991633679788342</v>
+        <v>1.029740579013128</v>
       </c>
       <c r="F12">
-        <v>0.9065565899344195</v>
+        <v>1.034066613582789</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.032909237519768</v>
+        <v>1.038392068947211</v>
       </c>
       <c r="J12">
-        <v>1.01211060549851</v>
+        <v>1.036604265043024</v>
       </c>
       <c r="K12">
-        <v>1.018330016428259</v>
+        <v>1.039131743197967</v>
       </c>
       <c r="L12">
-        <v>1.006922939949304</v>
+        <v>1.033376331903072</v>
       </c>
       <c r="M12">
-        <v>0.9237233210491154</v>
+        <v>1.037685970158404</v>
       </c>
       <c r="N12">
-        <v>1.00699830642424</v>
+        <v>1.016037733850601</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9818428783087718</v>
+        <v>1.0299693085306</v>
       </c>
       <c r="D13">
-        <v>1.003538953664943</v>
+        <v>1.035562625404113</v>
       </c>
       <c r="E13">
-        <v>0.9919082922439263</v>
+        <v>1.029788067165117</v>
       </c>
       <c r="F13">
-        <v>0.9074939942695907</v>
+        <v>1.03419286217584</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.033085396743576</v>
+        <v>1.038414186717938</v>
       </c>
       <c r="J13">
-        <v>1.012340553114189</v>
+        <v>1.036641259571255</v>
       </c>
       <c r="K13">
-        <v>1.018554858345398</v>
+        <v>1.039166702553746</v>
       </c>
       <c r="L13">
-        <v>1.007147614872099</v>
+        <v>1.03341393241389</v>
       </c>
       <c r="M13">
-        <v>0.9245865381931616</v>
+        <v>1.037802083224465</v>
       </c>
       <c r="N13">
-        <v>1.007079082545694</v>
+        <v>1.016050539643378</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9829536206938413</v>
+        <v>1.03015197053698</v>
       </c>
       <c r="D14">
-        <v>1.004431642415831</v>
+        <v>1.035709302504847</v>
       </c>
       <c r="E14">
-        <v>0.9928038851013382</v>
+        <v>1.029943658032802</v>
       </c>
       <c r="F14">
-        <v>0.9105347654651829</v>
+        <v>1.034606289623685</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.033658489442448</v>
+        <v>1.038486590974267</v>
       </c>
       <c r="J14">
-        <v>1.013089850245194</v>
+        <v>1.03676243709722</v>
       </c>
       <c r="K14">
-        <v>1.01928732543742</v>
+        <v>1.039281206073761</v>
       </c>
       <c r="L14">
-        <v>1.007879946561345</v>
+        <v>1.033537105572228</v>
       </c>
       <c r="M14">
-        <v>0.9273865748620381</v>
+        <v>1.038182294165315</v>
       </c>
       <c r="N14">
-        <v>1.007342305665677</v>
+        <v>1.01609248000012</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9836338782550771</v>
+        <v>1.030264499025925</v>
       </c>
       <c r="D15">
-        <v>1.004978202097601</v>
+        <v>1.03579965765865</v>
       </c>
       <c r="E15">
-        <v>0.9933525343147476</v>
+        <v>1.030039516935883</v>
       </c>
       <c r="F15">
-        <v>0.9123854203277088</v>
+        <v>1.034860836543471</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.034008510703935</v>
+        <v>1.038531150973694</v>
       </c>
       <c r="J15">
-        <v>1.013548402701036</v>
+        <v>1.036837069695141</v>
       </c>
       <c r="K15">
-        <v>1.019735434273828</v>
+        <v>1.039351722304146</v>
       </c>
       <c r="L15">
-        <v>1.008328278835134</v>
+        <v>1.033612975457126</v>
       </c>
       <c r="M15">
-        <v>0.929090646249783</v>
+        <v>1.038416370116084</v>
       </c>
       <c r="N15">
-        <v>1.007503398648751</v>
+        <v>1.016118306484004</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.9875332944527107</v>
+        <v>1.030919227800826</v>
       </c>
       <c r="D16">
-        <v>1.008109130569562</v>
+        <v>1.036325299411926</v>
       </c>
       <c r="E16">
-        <v>0.9964998897719923</v>
+        <v>1.030597370849055</v>
       </c>
       <c r="F16">
-        <v>0.9228320235970336</v>
+        <v>1.036339704895466</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.036001153932211</v>
+        <v>1.038789738644298</v>
       </c>
       <c r="J16">
-        <v>1.016172017477389</v>
+        <v>1.03727102485685</v>
       </c>
       <c r="K16">
-        <v>1.022297247391804</v>
+        <v>1.039761653034729</v>
       </c>
       <c r="L16">
-        <v>1.010895764152737</v>
+        <v>1.034054249612651</v>
       </c>
       <c r="M16">
-        <v>0.938708608721587</v>
+        <v>1.039776007213974</v>
       </c>
       <c r="N16">
-        <v>1.008425162039404</v>
+        <v>1.016268409241335</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.9899292007835205</v>
+        <v>1.031329717057899</v>
       </c>
       <c r="D17">
-        <v>1.010031239868213</v>
+        <v>1.036654790114933</v>
       </c>
       <c r="E17">
-        <v>0.9984357515025997</v>
+        <v>1.030947223665246</v>
       </c>
       <c r="F17">
-        <v>0.929122084816311</v>
+        <v>1.037265014470922</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.037214133323278</v>
+        <v>1.038951267813848</v>
       </c>
       <c r="J17">
-        <v>1.017779962706729</v>
+        <v>1.037542849217016</v>
       </c>
       <c r="K17">
-        <v>1.023865641828415</v>
+        <v>1.040018350063551</v>
       </c>
       <c r="L17">
-        <v>1.012471263363081</v>
+        <v>1.034330768098694</v>
       </c>
       <c r="M17">
-        <v>0.9444985173019537</v>
+        <v>1.040626452108633</v>
       </c>
       <c r="N17">
-        <v>1.008990114631108</v>
+        <v>1.016362372934071</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.9913096309400028</v>
+        <v>1.031569075769508</v>
       </c>
       <c r="D18">
-        <v>1.011138179302245</v>
+        <v>1.036846894304215</v>
       </c>
       <c r="E18">
-        <v>0.9995518467986495</v>
+        <v>1.031151260869003</v>
       </c>
       <c r="F18">
-        <v>0.9327045507070494</v>
+        <v>1.037803901021419</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.037909170362783</v>
+        <v>1.039045242517432</v>
       </c>
       <c r="J18">
-        <v>1.018705018437564</v>
+        <v>1.037701262167863</v>
       </c>
       <c r="K18">
-        <v>1.02476738356244</v>
+        <v>1.040167918857706</v>
       </c>
       <c r="L18">
-        <v>1.013378320436982</v>
+        <v>1.034491956085434</v>
       </c>
       <c r="M18">
-        <v>0.9477956293343557</v>
+        <v>1.041121643723984</v>
       </c>
       <c r="N18">
-        <v>1.009315132078956</v>
+        <v>1.01641711151013</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.9917775145963987</v>
+        <v>1.031650678669367</v>
       </c>
       <c r="D19">
-        <v>1.0115132860852</v>
+        <v>1.036912383015427</v>
       </c>
       <c r="E19">
-        <v>0.9999302587323745</v>
+        <v>1.031220827934838</v>
       </c>
       <c r="F19">
-        <v>0.9339121262858405</v>
+        <v>1.037987507826093</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.038144116996981</v>
+        <v>1.039077244429196</v>
       </c>
       <c r="J19">
-        <v>1.019018330043417</v>
+        <v>1.037755253632651</v>
       </c>
       <c r="K19">
-        <v>1.025072707337321</v>
+        <v>1.040218891198327</v>
       </c>
       <c r="L19">
-        <v>1.013685646216159</v>
+        <v>1.034546900034851</v>
       </c>
       <c r="M19">
-        <v>0.948906929039853</v>
+        <v>1.041290346909754</v>
       </c>
       <c r="N19">
-        <v>1.009425212546461</v>
+        <v>1.016435764295478</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.9896739284621238</v>
+        <v>1.031285682992379</v>
       </c>
       <c r="D20">
-        <v>1.009826502554391</v>
+        <v>1.036619447399564</v>
       </c>
       <c r="E20">
-        <v>0.9982294191167944</v>
+        <v>1.030909690477135</v>
       </c>
       <c r="F20">
-        <v>0.9284563319515927</v>
+        <v>1.037165823773878</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.037085299977266</v>
+        <v>1.038933962373378</v>
       </c>
       <c r="J20">
-        <v>1.017608789139444</v>
+        <v>1.03751369928804</v>
       </c>
       <c r="K20">
-        <v>1.023698737768732</v>
+        <v>1.039990825290326</v>
       </c>
       <c r="L20">
-        <v>1.012303473667741</v>
+        <v>1.034301110701179</v>
       </c>
       <c r="M20">
-        <v>0.9438857520443769</v>
+        <v>1.040535296520503</v>
       </c>
       <c r="N20">
-        <v>1.008929972594811</v>
+        <v>1.01635229864723</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9826273973508558</v>
+        <v>1.030098184385194</v>
       </c>
       <c r="D21">
-        <v>1.004169493925309</v>
+        <v>1.035666113394658</v>
       </c>
       <c r="E21">
-        <v>0.99254081806144</v>
+        <v>1.029897841605483</v>
       </c>
       <c r="F21">
-        <v>0.9096441591808072</v>
+        <v>1.034484582994712</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.033490375681576</v>
+        <v>1.038465280283828</v>
       </c>
       <c r="J21">
-        <v>1.012869855242692</v>
+        <v>1.036726759356471</v>
       </c>
       <c r="K21">
-        <v>1.019072302194706</v>
+        <v>1.039247494555932</v>
       </c>
       <c r="L21">
-        <v>1.007664898458112</v>
+        <v>1.033500838560161</v>
       </c>
       <c r="M21">
-        <v>0.9265664909481507</v>
+        <v>1.038070370044099</v>
       </c>
       <c r="N21">
-        <v>1.007265021431213</v>
+        <v>1.016080132602212</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9780201733054297</v>
+        <v>1.029350878399133</v>
       </c>
       <c r="D22">
-        <v>1.000464116643794</v>
+        <v>1.035065954878833</v>
       </c>
       <c r="E22">
-        <v>0.9888284054853754</v>
+        <v>1.029261402130805</v>
       </c>
       <c r="F22">
-        <v>0.8968392819248385</v>
+        <v>1.032790984951957</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.031097796521457</v>
+        <v>1.038168392443023</v>
       </c>
       <c r="J22">
-        <v>1.009756341934136</v>
+        <v>1.036230720445967</v>
       </c>
       <c r="K22">
-        <v>1.016026384896352</v>
+        <v>1.038778687224091</v>
       </c>
       <c r="L22">
-        <v>1.004624470643876</v>
+        <v>1.032996753558495</v>
       </c>
       <c r="M22">
-        <v>0.9147744808933452</v>
+        <v>1.036512548716105</v>
       </c>
       <c r="N22">
-        <v>1.006171397706608</v>
+        <v>1.01590838494528</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9804805950441317</v>
+        <v>1.029747104893305</v>
       </c>
       <c r="D23">
-        <v>1.0024436597288</v>
+        <v>1.035384183215227</v>
       </c>
       <c r="E23">
-        <v>0.9908103090785489</v>
+        <v>1.029598815188066</v>
       </c>
       <c r="F23">
-        <v>0.9037315165669941</v>
+        <v>1.033689547446645</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.032379826584482</v>
+        <v>1.038325988844574</v>
       </c>
       <c r="J23">
-        <v>1.011420606591364</v>
+        <v>1.03649380028006</v>
       </c>
       <c r="K23">
-        <v>1.017655169120601</v>
+        <v>1.039027348897077</v>
       </c>
       <c r="L23">
-        <v>1.00624895051462</v>
+        <v>1.033264066755193</v>
       </c>
       <c r="M23">
-        <v>0.921121760600656</v>
+        <v>1.037339154087693</v>
       </c>
       <c r="N23">
-        <v>1.006755932525701</v>
+        <v>1.015999491252853</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.9897893275270173</v>
+        <v>1.031305580316252</v>
       </c>
       <c r="D24">
-        <v>1.009919058189828</v>
+        <v>1.036635417505505</v>
       </c>
       <c r="E24">
-        <v>0.9983226920171641</v>
+        <v>1.03092665019001</v>
       </c>
       <c r="F24">
-        <v>0.9287574221069983</v>
+        <v>1.037210646345773</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.037143552566913</v>
+        <v>1.038941782706472</v>
       </c>
       <c r="J24">
-        <v>1.017686174574414</v>
+        <v>1.037526871311609</v>
       </c>
       <c r="K24">
-        <v>1.023774194744062</v>
+        <v>1.040003263039713</v>
       </c>
       <c r="L24">
-        <v>1.012379327229749</v>
+        <v>1.034314511913536</v>
       </c>
       <c r="M24">
-        <v>0.9441628798409579</v>
+        <v>1.040576488458058</v>
       </c>
       <c r="N24">
-        <v>1.008957162066708</v>
+        <v>1.01635685099667</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>0.9999285191240967</v>
+        <v>1.03311126266933</v>
       </c>
       <c r="D25">
-        <v>1.018042239053802</v>
+        <v>1.038084191433756</v>
       </c>
       <c r="E25">
-        <v>1.006532807309509</v>
+        <v>1.032466515259198</v>
       </c>
       <c r="F25">
-        <v>0.9544484188418935</v>
+        <v>1.041264245037345</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.042186909766744</v>
+        <v>1.039646874949653</v>
       </c>
       <c r="J25">
-        <v>1.02445828912525</v>
+        <v>1.038720304117472</v>
       </c>
       <c r="K25">
-        <v>1.030366783048724</v>
+        <v>1.041129559413813</v>
       </c>
       <c r="L25">
-        <v>1.019030549322717</v>
+        <v>1.035529557721998</v>
       </c>
       <c r="M25">
-        <v>0.9677975730363965</v>
+        <v>1.044299700193808</v>
       </c>
       <c r="N25">
-        <v>1.011336214300054</v>
+        <v>1.016768848741715</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_235/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_3_235/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.034549298079764</v>
+        <v>1.007570900774748</v>
       </c>
       <c r="D2">
-        <v>1.039237236565296</v>
+        <v>1.024155375374694</v>
       </c>
       <c r="E2">
-        <v>1.033693968881767</v>
+        <v>1.012741783185006</v>
       </c>
       <c r="F2">
-        <v>1.044472820629332</v>
+        <v>0.9729401624555303</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.040201713768006</v>
+        <v>1.045892453544668</v>
       </c>
       <c r="J2">
-        <v>1.039667933892078</v>
+        <v>1.029527501688498</v>
       </c>
       <c r="K2">
-        <v>1.042022995502928</v>
+        <v>1.035288139997946</v>
       </c>
       <c r="L2">
-        <v>1.036495582016846</v>
+        <v>1.024026413558307</v>
       </c>
       <c r="M2">
-        <v>1.047243773065315</v>
+        <v>0.9847898154854241</v>
       </c>
       <c r="N2">
-        <v>1.017095310108538</v>
+        <v>1.013115886293809</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.035592239019622</v>
+        <v>1.012896476090592</v>
       </c>
       <c r="D3">
-        <v>1.040073052189016</v>
+        <v>1.028411299113303</v>
       </c>
       <c r="E3">
-        <v>1.034584819740886</v>
+        <v>1.01707965993861</v>
       </c>
       <c r="F3">
-        <v>1.046789062068997</v>
+        <v>0.9854498985414927</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.0406002617218</v>
+        <v>1.048425901906226</v>
       </c>
       <c r="J3">
-        <v>1.040353580208111</v>
+        <v>1.033041639342986</v>
       </c>
       <c r="K3">
-        <v>1.042668920881376</v>
+        <v>1.038693113260083</v>
       </c>
       <c r="L3">
-        <v>1.037195247949527</v>
+        <v>1.027498569708883</v>
       </c>
       <c r="M3">
-        <v>1.049367338425143</v>
+        <v>0.9962723992558645</v>
       </c>
       <c r="N3">
-        <v>1.017331119084254</v>
+        <v>1.014348530518296</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.036266555290422</v>
+        <v>1.01624842436697</v>
       </c>
       <c r="D4">
-        <v>1.04061324969089</v>
+        <v>1.031088477837025</v>
       </c>
       <c r="E4">
-        <v>1.035161092158067</v>
+        <v>1.019814857854367</v>
       </c>
       <c r="F4">
-        <v>1.048281843765013</v>
+        <v>0.9931812677376715</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.040856171610722</v>
+        <v>1.049999511779526</v>
       </c>
       <c r="J4">
-        <v>1.040796136034545</v>
+        <v>1.035245432262204</v>
       </c>
       <c r="K4">
-        <v>1.04308560366257</v>
+        <v>1.040825630375452</v>
       </c>
       <c r="L4">
-        <v>1.037647180220787</v>
+        <v>1.029679875365593</v>
       </c>
       <c r="M4">
-        <v>1.050735140636954</v>
+        <v>1.003362691534736</v>
       </c>
       <c r="N4">
-        <v>1.017483138216689</v>
+        <v>1.015120929609319</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.036549911944327</v>
+        <v>1.017636294536128</v>
       </c>
       <c r="D5">
-        <v>1.040840199626356</v>
+        <v>1.032196628734949</v>
       </c>
       <c r="E5">
-        <v>1.035403318487171</v>
+        <v>1.02094850529821</v>
       </c>
       <c r="F5">
-        <v>1.048908013170412</v>
+        <v>0.996352200140281</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.040963285381175</v>
+        <v>1.05064622542212</v>
       </c>
       <c r="J5">
-        <v>1.040981924385372</v>
+        <v>1.036156035182998</v>
       </c>
       <c r="K5">
-        <v>1.043260474210066</v>
+        <v>1.041706138245747</v>
       </c>
       <c r="L5">
-        <v>1.03783698307613</v>
+        <v>1.030582076116485</v>
       </c>
       <c r="M5">
-        <v>1.051308693226591</v>
+        <v>1.006269140136148</v>
       </c>
       <c r="N5">
-        <v>1.017546912365824</v>
+        <v>1.015439918346508</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.036597481461356</v>
+        <v>1.017868109078625</v>
       </c>
       <c r="D6">
-        <v>1.040878296833261</v>
+        <v>1.032381703340495</v>
       </c>
       <c r="E6">
-        <v>1.03544398713463</v>
+        <v>1.021137923370808</v>
       </c>
       <c r="F6">
-        <v>1.049013068940392</v>
+        <v>0.9968801633190557</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.040981242725054</v>
+        <v>1.050753965814395</v>
       </c>
       <c r="J6">
-        <v>1.041013103753282</v>
+        <v>1.036308023271501</v>
       </c>
       <c r="K6">
-        <v>1.043289818043941</v>
+        <v>1.041853066130397</v>
       </c>
       <c r="L6">
-        <v>1.037868840747661</v>
+        <v>1.030732713282771</v>
       </c>
       <c r="M6">
-        <v>1.051404909909178</v>
+        <v>1.00675297377145</v>
       </c>
       <c r="N6">
-        <v>1.017557612444137</v>
+        <v>1.015493150361219</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.036270342006922</v>
+        <v>1.016267051273713</v>
       </c>
       <c r="D7">
-        <v>1.040616282789894</v>
+        <v>1.031103351845639</v>
       </c>
       <c r="E7">
-        <v>1.035164328947389</v>
+        <v>1.019830068313368</v>
       </c>
       <c r="F7">
-        <v>1.048290216108415</v>
+        <v>0.9932239403413441</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.040857604716192</v>
+        <v>1.050008210372211</v>
       </c>
       <c r="J7">
-        <v>1.040798619574591</v>
+        <v>1.035257661019775</v>
       </c>
       <c r="K7">
-        <v>1.043087941478427</v>
+        <v>1.040837457489487</v>
       </c>
       <c r="L7">
-        <v>1.037649717117821</v>
+        <v>1.029691987805009</v>
       </c>
       <c r="M7">
-        <v>1.050742810211498</v>
+        <v>1.003401811093943</v>
       </c>
       <c r="N7">
-        <v>1.017483990898366</v>
+        <v>1.015125214078532</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.034901877389886</v>
+        <v>1.009390959194947</v>
       </c>
       <c r="D8">
-        <v>1.039519836252706</v>
+        <v>1.025610217542119</v>
       </c>
       <c r="E8">
-        <v>1.033995071754384</v>
+        <v>1.014223229787204</v>
       </c>
       <c r="F8">
-        <v>1.045256865533383</v>
+        <v>0.977248062919849</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.040336815914951</v>
+        <v>1.046762824378904</v>
       </c>
       <c r="J8">
-        <v>1.039899880903944</v>
+        <v>1.030730213028409</v>
       </c>
       <c r="K8">
-        <v>1.042241554123393</v>
+        <v>1.036454106278591</v>
       </c>
       <c r="L8">
-        <v>1.036732203712321</v>
+        <v>1.025213924335125</v>
       </c>
       <c r="M8">
-        <v>1.047962763933348</v>
+        <v>0.988745305811463</v>
       </c>
       <c r="N8">
-        <v>1.017175120203566</v>
+        <v>1.01353787826749</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.032486247928765</v>
+        <v>0.996491025724502</v>
       </c>
       <c r="D9">
-        <v>1.03758283242321</v>
+        <v>1.015290065652059</v>
       </c>
       <c r="E9">
-        <v>1.031933336031656</v>
+        <v>1.003745941865495</v>
       </c>
       <c r="F9">
-        <v>1.039864275285698</v>
+        <v>0.9458986660446279</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.039403856515247</v>
+        <v>1.04049344948715</v>
       </c>
       <c r="J9">
-        <v>1.03830764852633</v>
+        <v>1.022168306335825</v>
       </c>
       <c r="K9">
-        <v>1.040740255428783</v>
+        <v>1.028139849137222</v>
       </c>
       <c r="L9">
-        <v>1.035109237109187</v>
+        <v>1.01677853473595</v>
       </c>
       <c r="M9">
-        <v>1.043014298616173</v>
+        <v>0.9599350460709284</v>
       </c>
       <c r="N9">
-        <v>1.016626496434572</v>
+        <v>1.010531860308443</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.030872828646408</v>
+        <v>0.9872601563711005</v>
       </c>
       <c r="D10">
-        <v>1.036288052610002</v>
+        <v>1.007889931741774</v>
       </c>
       <c r="E10">
-        <v>1.030557830541328</v>
+        <v>0.996279297704324</v>
       </c>
       <c r="F10">
-        <v>1.036235022550647</v>
+        <v>0.922108921864202</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.0387714513984</v>
+        <v>1.035862329450526</v>
       </c>
       <c r="J10">
-        <v>1.037240287407188</v>
+        <v>1.015988513591629</v>
       </c>
       <c r="K10">
-        <v>1.039732622321974</v>
+        <v>1.022118177437394</v>
       </c>
       <c r="L10">
-        <v>1.034022986701529</v>
+        <v>1.010716057113742</v>
       </c>
       <c r="M10">
-        <v>1.039679781627275</v>
+        <v>0.9380429398504067</v>
       </c>
       <c r="N10">
-        <v>1.016257781104034</v>
+        <v>1.008360688443535</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.030173451286913</v>
+        <v>0.9830837105636241</v>
       </c>
       <c r="D11">
-        <v>1.035726550840306</v>
+        <v>1.004536173317764</v>
       </c>
       <c r="E11">
-        <v>1.029961956254317</v>
+        <v>0.992908797432154</v>
       </c>
       <c r="F11">
-        <v>1.034654888983438</v>
+        <v>0.9108893525129258</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.038495099728783</v>
+        <v>1.033725482324197</v>
       </c>
       <c r="J11">
-        <v>1.036776684930313</v>
+        <v>1.01317756214458</v>
       </c>
       <c r="K11">
-        <v>1.039294668413303</v>
+        <v>1.019373048088764</v>
       </c>
       <c r="L11">
-        <v>1.033551589128294</v>
+        <v>1.007965694038001</v>
       </c>
       <c r="M11">
-        <v>1.038226986262501</v>
+        <v>0.9277130806442261</v>
       </c>
       <c r="N11">
-        <v>1.016097410695983</v>
+        <v>1.007373119166887</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.029913554423105</v>
+        <v>0.9815022171594787</v>
       </c>
       <c r="D12">
-        <v>1.035517853042596</v>
+        <v>1.003265104456121</v>
       </c>
       <c r="E12">
-        <v>1.029740579013128</v>
+        <v>0.9916336797883414</v>
       </c>
       <c r="F12">
-        <v>1.034066613582789</v>
+        <v>0.9065565899344199</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.038392068947211</v>
+        <v>1.032909237519767</v>
       </c>
       <c r="J12">
-        <v>1.036604265043024</v>
+        <v>1.012110605498509</v>
       </c>
       <c r="K12">
-        <v>1.039131743197967</v>
+        <v>1.018330016428259</v>
       </c>
       <c r="L12">
-        <v>1.033376331903072</v>
+        <v>1.006922939949303</v>
       </c>
       <c r="M12">
-        <v>1.037685970158404</v>
+        <v>0.9237233210491157</v>
       </c>
       <c r="N12">
-        <v>1.016037733850601</v>
+        <v>1.00699830642424</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.0299693085306</v>
+        <v>0.9818428783087719</v>
       </c>
       <c r="D13">
-        <v>1.035562625404113</v>
+        <v>1.003538953664943</v>
       </c>
       <c r="E13">
-        <v>1.029788067165117</v>
+        <v>0.9919082922439264</v>
       </c>
       <c r="F13">
-        <v>1.03419286217584</v>
+        <v>0.9074939942695915</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.038414186717938</v>
+        <v>1.033085396743576</v>
       </c>
       <c r="J13">
-        <v>1.036641259571255</v>
+        <v>1.012340553114189</v>
       </c>
       <c r="K13">
-        <v>1.039166702553746</v>
+        <v>1.018554858345398</v>
       </c>
       <c r="L13">
-        <v>1.03341393241389</v>
+        <v>1.007147614872099</v>
       </c>
       <c r="M13">
-        <v>1.037802083224465</v>
+        <v>0.9245865381931625</v>
       </c>
       <c r="N13">
-        <v>1.016050539643378</v>
+        <v>1.007079082545695</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.03015197053698</v>
+        <v>0.9829536206938416</v>
       </c>
       <c r="D14">
-        <v>1.035709302504847</v>
+        <v>1.004431642415832</v>
       </c>
       <c r="E14">
-        <v>1.029943658032802</v>
+        <v>0.9928038851013381</v>
       </c>
       <c r="F14">
-        <v>1.034606289623685</v>
+        <v>0.9105347654651837</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.038486590974267</v>
+        <v>1.033658489442449</v>
       </c>
       <c r="J14">
-        <v>1.03676243709722</v>
+        <v>1.013089850245194</v>
       </c>
       <c r="K14">
-        <v>1.039281206073761</v>
+        <v>1.019287325437421</v>
       </c>
       <c r="L14">
-        <v>1.033537105572228</v>
+        <v>1.007879946561345</v>
       </c>
       <c r="M14">
-        <v>1.038182294165315</v>
+        <v>0.9273865748620388</v>
       </c>
       <c r="N14">
-        <v>1.01609248000012</v>
+        <v>1.007342305665677</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.030264499025925</v>
+        <v>0.9836338782550764</v>
       </c>
       <c r="D15">
-        <v>1.03579965765865</v>
+        <v>1.0049782020976</v>
       </c>
       <c r="E15">
-        <v>1.030039516935883</v>
+        <v>0.9933525343147467</v>
       </c>
       <c r="F15">
-        <v>1.034860836543471</v>
+        <v>0.9123854203277084</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.038531150973694</v>
+        <v>1.034008510703934</v>
       </c>
       <c r="J15">
-        <v>1.036837069695141</v>
+        <v>1.013548402701035</v>
       </c>
       <c r="K15">
-        <v>1.039351722304146</v>
+        <v>1.019735434273827</v>
       </c>
       <c r="L15">
-        <v>1.033612975457126</v>
+        <v>1.008328278835133</v>
       </c>
       <c r="M15">
-        <v>1.038416370116084</v>
+        <v>0.9290906462497829</v>
       </c>
       <c r="N15">
-        <v>1.016118306484004</v>
+        <v>1.007503398648751</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.030919227800826</v>
+        <v>0.987533294452709</v>
       </c>
       <c r="D16">
-        <v>1.036325299411926</v>
+        <v>1.00810913056956</v>
       </c>
       <c r="E16">
-        <v>1.030597370849055</v>
+        <v>0.9964998897719903</v>
       </c>
       <c r="F16">
-        <v>1.036339704895466</v>
+        <v>0.9228320235970318</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.038789738644298</v>
+        <v>1.03600115393221</v>
       </c>
       <c r="J16">
-        <v>1.03727102485685</v>
+        <v>1.016172017477387</v>
       </c>
       <c r="K16">
-        <v>1.039761653034729</v>
+        <v>1.022297247391802</v>
       </c>
       <c r="L16">
-        <v>1.034054249612651</v>
+        <v>1.010895764152735</v>
       </c>
       <c r="M16">
-        <v>1.039776007213974</v>
+        <v>0.9387086087215852</v>
       </c>
       <c r="N16">
-        <v>1.016268409241335</v>
+        <v>1.008425162039403</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.031329717057899</v>
+        <v>0.9899292007835196</v>
       </c>
       <c r="D17">
-        <v>1.036654790114933</v>
+        <v>1.010031239868213</v>
       </c>
       <c r="E17">
-        <v>1.030947223665246</v>
+        <v>0.9984357515025989</v>
       </c>
       <c r="F17">
-        <v>1.037265014470922</v>
+        <v>0.9291220848163108</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.038951267813848</v>
+        <v>1.037214133323277</v>
       </c>
       <c r="J17">
-        <v>1.037542849217016</v>
+        <v>1.017779962706727</v>
       </c>
       <c r="K17">
-        <v>1.040018350063551</v>
+        <v>1.023865641828414</v>
       </c>
       <c r="L17">
-        <v>1.034330768098694</v>
+        <v>1.01247126336308</v>
       </c>
       <c r="M17">
-        <v>1.040626452108633</v>
+        <v>0.9444985173019533</v>
       </c>
       <c r="N17">
-        <v>1.016362372934071</v>
+        <v>1.008990114631108</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.031569075769508</v>
+        <v>0.991309630940003</v>
       </c>
       <c r="D18">
-        <v>1.036846894304215</v>
+        <v>1.011138179302245</v>
       </c>
       <c r="E18">
-        <v>1.031151260869003</v>
+        <v>0.9995518467986498</v>
       </c>
       <c r="F18">
-        <v>1.037803901021419</v>
+        <v>0.9327045507070478</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.039045242517432</v>
+        <v>1.037909170362783</v>
       </c>
       <c r="J18">
-        <v>1.037701262167863</v>
+        <v>1.018705018437564</v>
       </c>
       <c r="K18">
-        <v>1.040167918857706</v>
+        <v>1.02476738356244</v>
       </c>
       <c r="L18">
-        <v>1.034491956085434</v>
+        <v>1.013378320436982</v>
       </c>
       <c r="M18">
-        <v>1.041121643723984</v>
+        <v>0.9477956293343546</v>
       </c>
       <c r="N18">
-        <v>1.01641711151013</v>
+        <v>1.009315132078956</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.031650678669367</v>
+        <v>0.9917775145963971</v>
       </c>
       <c r="D19">
-        <v>1.036912383015427</v>
+        <v>1.011513286085198</v>
       </c>
       <c r="E19">
-        <v>1.031220827934838</v>
+        <v>0.9999302587323732</v>
       </c>
       <c r="F19">
-        <v>1.037987507826093</v>
+        <v>0.9339121262858389</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.039077244429196</v>
+        <v>1.038144116996979</v>
       </c>
       <c r="J19">
-        <v>1.037755253632651</v>
+        <v>1.019018330043415</v>
       </c>
       <c r="K19">
-        <v>1.040218891198327</v>
+        <v>1.025072707337318</v>
       </c>
       <c r="L19">
-        <v>1.034546900034851</v>
+        <v>1.013685646216158</v>
       </c>
       <c r="M19">
-        <v>1.041290346909754</v>
+        <v>0.9489069290398512</v>
       </c>
       <c r="N19">
-        <v>1.016435764295478</v>
+        <v>1.00942521254646</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.031285682992379</v>
+        <v>0.9896739284621228</v>
       </c>
       <c r="D20">
-        <v>1.036619447399564</v>
+        <v>1.00982650255439</v>
       </c>
       <c r="E20">
-        <v>1.030909690477135</v>
+        <v>0.9982294191167931</v>
       </c>
       <c r="F20">
-        <v>1.037165823773878</v>
+        <v>0.9284563319515922</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.038933962373378</v>
+        <v>1.037085299977266</v>
       </c>
       <c r="J20">
-        <v>1.03751369928804</v>
+        <v>1.017608789139444</v>
       </c>
       <c r="K20">
-        <v>1.039990825290326</v>
+        <v>1.023698737768731</v>
       </c>
       <c r="L20">
-        <v>1.034301110701179</v>
+        <v>1.012303473667739</v>
       </c>
       <c r="M20">
-        <v>1.040535296520503</v>
+        <v>0.9438857520443763</v>
       </c>
       <c r="N20">
-        <v>1.01635229864723</v>
+        <v>1.00892997259481</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.030098184385194</v>
+        <v>0.9826273973508552</v>
       </c>
       <c r="D21">
-        <v>1.035666113394658</v>
+        <v>1.004169493925309</v>
       </c>
       <c r="E21">
-        <v>1.029897841605483</v>
+        <v>0.9925408180614395</v>
       </c>
       <c r="F21">
-        <v>1.034484582994712</v>
+        <v>0.9096441591808057</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.038465280283828</v>
+        <v>1.033490375681576</v>
       </c>
       <c r="J21">
-        <v>1.036726759356471</v>
+        <v>1.012869855242692</v>
       </c>
       <c r="K21">
-        <v>1.039247494555932</v>
+        <v>1.019072302194706</v>
       </c>
       <c r="L21">
-        <v>1.033500838560161</v>
+        <v>1.007664898458111</v>
       </c>
       <c r="M21">
-        <v>1.038070370044099</v>
+        <v>0.9265664909481491</v>
       </c>
       <c r="N21">
-        <v>1.016080132602212</v>
+        <v>1.007265021431213</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.029350878399133</v>
+        <v>0.9780201733054296</v>
       </c>
       <c r="D22">
-        <v>1.035065954878833</v>
+        <v>1.000464116643794</v>
       </c>
       <c r="E22">
-        <v>1.029261402130805</v>
+        <v>0.9888284054853755</v>
       </c>
       <c r="F22">
-        <v>1.032790984951957</v>
+        <v>0.8968392819248402</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.038168392443023</v>
+        <v>1.031097796521457</v>
       </c>
       <c r="J22">
-        <v>1.036230720445967</v>
+        <v>1.009756341934136</v>
       </c>
       <c r="K22">
-        <v>1.038778687224091</v>
+        <v>1.016026384896353</v>
       </c>
       <c r="L22">
-        <v>1.032996753558495</v>
+        <v>1.004624470643876</v>
       </c>
       <c r="M22">
-        <v>1.036512548716105</v>
+        <v>0.9147744808933468</v>
       </c>
       <c r="N22">
-        <v>1.01590838494528</v>
+        <v>1.006171397706608</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.029747104893305</v>
+        <v>0.9804805950441321</v>
       </c>
       <c r="D23">
-        <v>1.035384183215227</v>
+        <v>1.0024436597288</v>
       </c>
       <c r="E23">
-        <v>1.029598815188066</v>
+        <v>0.9908103090785487</v>
       </c>
       <c r="F23">
-        <v>1.033689547446645</v>
+        <v>0.9037315165669962</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.038325988844574</v>
+        <v>1.032379826584482</v>
       </c>
       <c r="J23">
-        <v>1.03649380028006</v>
+        <v>1.011420606591365</v>
       </c>
       <c r="K23">
-        <v>1.039027348897077</v>
+        <v>1.017655169120602</v>
       </c>
       <c r="L23">
-        <v>1.033264066755193</v>
+        <v>1.00624895051462</v>
       </c>
       <c r="M23">
-        <v>1.037339154087693</v>
+        <v>0.9211217606006578</v>
       </c>
       <c r="N23">
-        <v>1.015999491252853</v>
+        <v>1.006755932525701</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.031305580316252</v>
+        <v>0.9897893275270172</v>
       </c>
       <c r="D24">
-        <v>1.036635417505505</v>
+        <v>1.009919058189828</v>
       </c>
       <c r="E24">
-        <v>1.03092665019001</v>
+        <v>0.9983226920171641</v>
       </c>
       <c r="F24">
-        <v>1.037210646345773</v>
+        <v>0.9287574221069979</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.038941782706472</v>
+        <v>1.037143552566913</v>
       </c>
       <c r="J24">
-        <v>1.037526871311609</v>
+        <v>1.017686174574414</v>
       </c>
       <c r="K24">
-        <v>1.040003263039713</v>
+        <v>1.023774194744062</v>
       </c>
       <c r="L24">
-        <v>1.034314511913536</v>
+        <v>1.012379327229749</v>
       </c>
       <c r="M24">
-        <v>1.040576488458058</v>
+        <v>0.9441628798409576</v>
       </c>
       <c r="N24">
-        <v>1.01635685099667</v>
+        <v>1.008957162066708</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.03311126266933</v>
+        <v>0.9999285191240977</v>
       </c>
       <c r="D25">
-        <v>1.038084191433756</v>
+        <v>1.018042239053803</v>
       </c>
       <c r="E25">
-        <v>1.032466515259198</v>
+        <v>1.00653280730951</v>
       </c>
       <c r="F25">
-        <v>1.041264245037345</v>
+        <v>0.9544484188418936</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.039646874949653</v>
+        <v>1.042186909766745</v>
       </c>
       <c r="J25">
-        <v>1.038720304117472</v>
+        <v>1.024458289125251</v>
       </c>
       <c r="K25">
-        <v>1.041129559413813</v>
+        <v>1.030366783048725</v>
       </c>
       <c r="L25">
-        <v>1.035529557721998</v>
+        <v>1.019030549322718</v>
       </c>
       <c r="M25">
-        <v>1.044299700193808</v>
+        <v>0.9677975730363967</v>
       </c>
       <c r="N25">
-        <v>1.016768848741715</v>
+        <v>1.011336214300054</v>
       </c>
     </row>
   </sheetData>
